--- a/experiment_results/SBFL_ONLY/Summary/Elevator/multiple_bugs.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/Elevator/multiple_bugs.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.0924092409240924</v>
+        <v>0.09477124183006536</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1963696369636964</v>
+        <v>0.1977124183006536</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2161716171617162</v>
+        <v>0.2173202614379085</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2524752475247525</v>
+        <v>0.2532679738562091</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2376237623762376</v>
+        <v>0.2450980392156863</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.4455445544554456</v>
+        <v>0.4509803921568628</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5346534653465347</v>
+        <v>0.5392156862745098</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.03960396039604</v>
+        <v>7.980392156862745</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>128.4356435643564</v>
+        <v>129.9607843137255</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1402640264026404</v>
+        <v>0.1421568627450981</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2343234323432341</v>
+        <v>0.2352941176470586</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2425742574257424</v>
+        <v>0.2434640522875815</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2541254125412539</v>
+        <v>0.2549019607843134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3564356435643564</v>
+        <v>0.3627450980392157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6138613861386139</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6435643564356436</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.95049504950495</v>
+        <v>6.901960784313726</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>117.0594059405941</v>
+        <v>118.5490196078431</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1402640264026404</v>
+        <v>0.1421568627450981</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2343234323432341</v>
+        <v>0.2352941176470586</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2425742574257424</v>
+        <v>0.2434640522875815</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2541254125412539</v>
+        <v>0.2549019607843134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3564356435643564</v>
+        <v>0.3627450980392157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6138613861386139</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6435643564356436</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.930693069306931</v>
+        <v>6.882352941176471</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>223.3861386138614</v>
+        <v>225.4803921568627</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1996699669966996</v>
+        <v>0.2009803921568627</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1996699669966996</v>
+        <v>0.2009803921568627</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1996699669966996</v>
+        <v>0.2009803921568627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.504950495049505</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.504950495049505</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.504950495049505</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>33.92079207920792</v>
+        <v>33.6078431372549</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>322.7722772277228</v>
+        <v>323.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1996699669966996</v>
+        <v>0.2009803921568627</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1996699669966996</v>
+        <v>0.2009803921568627</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -956,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1996699669966996</v>
+        <v>0.2009803921568627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.504950495049505</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.504950495049505</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -999,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.504950495049505</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>33.92079207920792</v>
+        <v>33.6078431372549</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>322.7722772277228</v>
+        <v>323.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1006600660066007</v>
+        <v>0.09967320261437909</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1633663366336635</v>
+        <v>0.1650326797385622</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2343234323432341</v>
+        <v>0.2352941176470586</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2343234323432341</v>
+        <v>0.2352941176470586</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2458745874587457</v>
+        <v>0.2467320261437906</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2574257425742574</v>
+        <v>0.2549019607843137</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4158415841584158</v>
+        <v>0.4215686274509804</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6237623762376238</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.257425742574258</v>
+        <v>5.225490196078431</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>219.3960396039604</v>
+        <v>221.5294117647059</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1184,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1551155115511552</v>
+        <v>0.1568627450980393</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2425742574257424</v>
+        <v>0.2434640522875815</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.272277227722772</v>
+        <v>0.2728758169934637</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2937293729372933</v>
+        <v>0.2941176470588231</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3960396039603961</v>
+        <v>0.4019607843137255</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6633663366336634</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.7128712871287128</v>
+        <v>0.7156862745098039</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.821782178217822</v>
+        <v>4.794117647058823</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>127.6039603960396</v>
+        <v>128.7843137254902</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>22.69306930693069</v>
+        <v>22.58823529411765</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>143.7227722772277</v>
+        <v>144.7450980392157</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2161716171617162</v>
+        <v>0.2173202614379085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2343234323432342</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2557755775577557</v>
+        <v>0.2598039215686274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>97.38613861386139</v>
+        <v>96.45098039215686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>359.0990099009901</v>
+        <v>359.5686274509804</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1402640264026404</v>
+        <v>0.1421568627450981</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2343234323432341</v>
+        <v>0.2352941176470586</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2425742574257424</v>
+        <v>0.2434640522875815</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2541254125412539</v>
+        <v>0.2549019607843134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3564356435643564</v>
+        <v>0.3627450980392157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6138613861386139</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6435643564356436</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.95049504950495</v>
+        <v>6.901960784313726</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>117.0594059405941</v>
+        <v>118.5490196078431</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1402640264026404</v>
+        <v>0.1421568627450981</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2343234323432341</v>
+        <v>0.2352941176470586</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2425742574257424</v>
+        <v>0.2434640522875815</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2541254125412539</v>
+        <v>0.2549019607843134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3564356435643564</v>
+        <v>0.3627450980392157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6138613861386139</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6435643564356436</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.95049504950495</v>
+        <v>6.901960784313726</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>117.0594059405941</v>
+        <v>118.5490196078431</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1006600660066007</v>
+        <v>0.09967320261437909</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1633663366336635</v>
+        <v>0.1650326797385622</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2376237623762374</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2376237623762374</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.249174917491749</v>
+        <v>0.2499999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2574257425742574</v>
+        <v>0.2549019607843137</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4158415841584158</v>
+        <v>0.4215686274509804</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6039603960396039</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6039603960396039</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6237623762376238</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.871287128712871</v>
+        <v>4.84313725490196</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>120.1287128712871</v>
+        <v>121.6960784313726</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2161716171617162</v>
+        <v>0.2173202614379085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2343234323432342</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1964,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2557755775577557</v>
+        <v>0.2598039215686274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>97.38613861386139</v>
+        <v>96.45098039215686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>359.0990099009901</v>
+        <v>359.5686274509804</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2161716171617162</v>
+        <v>0.2173202614379085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2343234323432342</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2557755775577557</v>
+        <v>0.2598039215686274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2141,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>97.38613861386139</v>
+        <v>96.45098039215686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>359.0990099009901</v>
+        <v>359.5686274509804</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2161716171617162</v>
+        <v>0.2173202614379085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2343234323432342</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2557755775577557</v>
+        <v>0.2598039215686274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>97.38613861386139</v>
+        <v>96.45098039215686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>359.0990099009901</v>
+        <v>359.5686274509804</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02805280528052806</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.06270627062706269</v>
+        <v>0.065359477124183</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.08910891089108909</v>
+        <v>0.0915032679738562</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.09735973597359737</v>
+        <v>0.09967320261437909</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.09735973597359737</v>
+        <v>0.09967320261437909</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.07920792079207921</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.1683168316831683</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.2376237623762376</v>
+        <v>0.2450980392156863</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2377,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2574257425742574</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.2574257425742574</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>10.41584158415842</v>
+        <v>10.33333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>124.3465346534653</v>
+        <v>125.8725490196078</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1518151815181519</v>
+        <v>0.1535947712418302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2458745874587457</v>
+        <v>0.2467320261437907</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2623762376237621</v>
+        <v>0.2630718954248363</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2838283828382835</v>
+        <v>0.2843137254901957</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3861386138613861</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6336633663366337</v>
+        <v>0.6372549019607843</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6831683168316832</v>
+        <v>0.6862745098039216</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.435643564356436</v>
+        <v>4.411764705882353</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>212.7524752475248</v>
+        <v>214.843137254902</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2161716171617162</v>
+        <v>0.2173202614379085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2586,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2343234323432342</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2557755775577557</v>
+        <v>0.2598039215686274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2637,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>97.38613861386139</v>
+        <v>96.45098039215686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>359.0990099009901</v>
+        <v>359.5686274509804</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2696,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2112211221122111</v>
+        <v>0.2124183006535947</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2194719471947194</v>
+        <v>0.2205882352941175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2244224422442243</v>
+        <v>0.2254901960784312</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2747,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5346534653465347</v>
+        <v>0.5392156862745098</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5544554455445545</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5643564356435643</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>31.86138613861386</v>
+        <v>31.56862745098039</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>324.1386138613861</v>
+        <v>325.1568627450981</v>
       </c>
     </row>
   </sheetData>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1402640264026404</v>
+        <v>0.1421568627450981</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2343234323432341</v>
+        <v>0.2352941176470586</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2425742574257424</v>
+        <v>0.2434640522875815</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2541254125412539</v>
+        <v>0.2549019607843134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3564356435643564</v>
+        <v>0.3627450980392157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6138613861386139</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2889,7 +2889,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6435643564356436</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.95049504950495</v>
+        <v>6.901960784313726</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>117.0594059405941</v>
+        <v>118.5490196078431</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1402640264026404</v>
+        <v>0.1421568627450981</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2956,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2343234323432341</v>
+        <v>0.2352941176470586</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2425742574257424</v>
+        <v>0.2434640522875815</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2541254125412539</v>
+        <v>0.2549019607843134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3564356435643564</v>
+        <v>0.3627450980392157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6138613861386139</v>
+        <v>0.6176470588235294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6435643564356436</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.95049504950495</v>
+        <v>6.901960784313726</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3031,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>117.0594059405941</v>
+        <v>118.5490196078431</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1518151815181519</v>
+        <v>0.1535947712418302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2458745874587457</v>
+        <v>0.2467320261437907</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2623762376237621</v>
+        <v>0.2630718954248363</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2838283828382835</v>
+        <v>0.2843137254901957</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3861386138613861</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6336633663366337</v>
+        <v>0.6372549019607843</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6831683168316832</v>
+        <v>0.6862745098039216</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.435643564356436</v>
+        <v>4.411764705882353</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>219.4653465346535</v>
+        <v>221.5980392156863</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00825082508250825</v>
+        <v>0.008169934640522875</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3200,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.03465346534653466</v>
+        <v>0.03431372549019608</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.04950495049504949</v>
+        <v>0.04901960784313725</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.04950495049504949</v>
+        <v>0.04901960784313725</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.05445544554455445</v>
+        <v>0.05392156862745097</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.0198019801980198</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.07920792079207921</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3251,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.1089108910891089</v>
+        <v>0.107843137254902</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.1089108910891089</v>
+        <v>0.107843137254902</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.1188118811881188</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15.93137254901961</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>128.980198019802</v>
+        <v>130.1470588235294</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06930693069306929</v>
+        <v>0.06862745098039214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1534653465346536</v>
+        <v>0.1552287581699348</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3334,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2244224422442243</v>
+        <v>0.2254901960784312</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2244224422442243</v>
+        <v>0.2254901960784312</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2293729372937292</v>
+        <v>0.2303921568627449</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1782178217821782</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3861386138613861</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.5643564356435643</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.5643564356435643</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5742574257425742</v>
+        <v>0.5784313725490197</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>7.287128712871287</v>
+        <v>7.235294117647059</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>130.8910891089109</v>
+        <v>132.3529411764706</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.0924092409240924</v>
+        <v>0.09477124183006536</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1963696369636964</v>
+        <v>0.1977124183006536</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2161716171617162</v>
+        <v>0.2173202614379085</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2524752475247525</v>
+        <v>0.2532679738562091</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.2376237623762376</v>
+        <v>0.2450980392156863</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.4455445544554456</v>
+        <v>0.4509803921568628</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3519,7 +3519,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5346534653465347</v>
+        <v>0.5392156862745098</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>8.03960396039604</v>
+        <v>7.980392156862745</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>128.4356435643564</v>
+        <v>129.9607843137255</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1006600660066007</v>
+        <v>0.09967320261437909</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1633663366336635</v>
+        <v>0.1650326797385622</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3586,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2376237623762374</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2376237623762374</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2574257425742572</v>
+        <v>0.2581699346405227</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.2574257425742574</v>
+        <v>0.2549019607843137</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.4158415841584158</v>
+        <v>0.4215686274509804</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.6039603960396039</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6039603960396039</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3645,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6237623762376238</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.811881188118812</v>
+        <v>4.784313725490196</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>120.7425742574257</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>22.69306930693069</v>
+        <v>22.58823529411765</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>143.7227722772277</v>
+        <v>144.7450980392157</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2161716171617162</v>
+        <v>0.2173202614379085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2343234323432342</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2557755775577557</v>
+        <v>0.2598039215686274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3881,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>97.38613861386139</v>
+        <v>96.45098039215686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>359.0990099009901</v>
+        <v>359.5686274509804</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06600660066006599</v>
+        <v>0.06535947712418298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3956,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1287128712871288</v>
+        <v>0.1307189542483661</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3964,7 +3964,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2161716171617162</v>
+        <v>0.2173202614379085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2343234323432342</v>
+        <v>0.2385620915032678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2557755775577557</v>
+        <v>0.2598039215686274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3991,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.1683168316831683</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3999,7 +3999,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3267326732673267</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4023,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.495049504950495</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>97.38613861386139</v>
+        <v>96.45098039215686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>359.0990099009901</v>
+        <v>359.5686274509804</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07755775577557752</v>
+        <v>0.07679738562091501</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1518151815181519</v>
+        <v>0.1535947712418302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2458745874587457</v>
+        <v>0.2467320261437907</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4098,7 +4098,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2623762376237621</v>
+        <v>0.2630718954248363</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2838283828382835</v>
+        <v>0.2843137254901957</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.198019801980198</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.3861386138613861</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4133,7 +4133,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.594059405940594</v>
+        <v>0.5980392156862745</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6336633663366337</v>
+        <v>0.6372549019607843</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.6831683168316832</v>
+        <v>0.6862745098039216</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4157,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>4.485148514851486</v>
+        <v>4.46078431372549</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4165,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>153.7326732673267</v>
+        <v>152.8529411764706</v>
       </c>
     </row>
   </sheetData>
